--- a/regionseng/12/business sector/by ownership.xlsx
+++ b/regionseng/12/business sector/by ownership.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D272A5A8-2EF3-4A91-8473-F3DAA3C75265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-105" yWindow="255" windowWidth="14790" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -184,7 +185,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,6 +276,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -310,6 +328,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,11 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -500,20 +535,20 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>2006</v>
@@ -560,8 +595,14 @@
       <c r="P5" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q5" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -610,8 +651,14 @@
       <c r="P6" s="11">
         <v>2051.6999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q6" s="11">
+        <v>2342.7892835421098</v>
+      </c>
+      <c r="R6" s="11">
+        <v>3047.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -660,8 +707,14 @@
       <c r="P7" s="12">
         <v>1605.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12">
+        <v>1809.1596958145385</v>
+      </c>
+      <c r="R7" s="12">
+        <v>2374.3000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -710,9 +763,14 @@
       <c r="P8" s="12">
         <v>444.5</v>
       </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" s="12">
+        <v>532.76672672757161</v>
+      </c>
+      <c r="R8" s="12">
+        <v>672.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -761,22 +819,27 @@
       <c r="P9" s="12">
         <v>1.4</v>
       </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12">
+        <v>0.86286099999999988</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <v>2006</v>
@@ -823,8 +886,14 @@
       <c r="P13" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q13" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
@@ -873,8 +942,14 @@
       <c r="P14" s="11">
         <v>1150.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="11">
+        <v>1386.5903290119998</v>
+      </c>
+      <c r="R14" s="11">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -923,8 +998,14 @@
       <c r="P15" s="12">
         <v>723.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="12">
+        <v>858.81434964400023</v>
+      </c>
+      <c r="R15" s="12">
+        <v>1236.5999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -973,8 +1054,14 @@
       <c r="P16" s="12">
         <v>422.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="12">
+        <v>524.16109836800001</v>
+      </c>
+      <c r="R16" s="12">
+        <v>660.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1023,19 +1110,25 @@
       <c r="P17" s="12">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="12">
+        <v>3.614881</v>
+      </c>
+      <c r="R17" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5">
         <v>2006</v>
@@ -1082,8 +1175,14 @@
       <c r="P21" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>5</v>
       </c>
@@ -1132,8 +1231,14 @@
       <c r="P22" s="13">
         <v>18910.599999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="13">
+        <v>19650.203075603004</v>
+      </c>
+      <c r="R22" s="13">
+        <v>20619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -1182,8 +1287,14 @@
       <c r="P23" s="14">
         <v>17180.599999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="14">
+        <v>17639.752660363003</v>
+      </c>
+      <c r="R23" s="14">
+        <v>17789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1232,8 +1343,14 @@
       <c r="P24" s="14">
         <v>1302</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="14">
+        <v>1661.95041524</v>
+      </c>
+      <c r="R24" s="14">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -1282,19 +1399,25 @@
       <c r="P25" s="14">
         <v>428</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="14">
+        <v>348.5</v>
+      </c>
+      <c r="R25" s="14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5">
         <v>2006</v>
@@ -1341,8 +1464,14 @@
       <c r="P29" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
@@ -1391,8 +1520,14 @@
       <c r="P30" s="11">
         <v>751.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="11">
+        <v>861.9</v>
+      </c>
+      <c r="R30" s="11">
+        <v>1004.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
@@ -1441,8 +1576,14 @@
       <c r="P31" s="12">
         <v>635.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="12">
+        <v>733.8</v>
+      </c>
+      <c r="R31" s="12">
+        <v>889.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1491,8 +1632,14 @@
       <c r="P32" s="12">
         <v>1979.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="12">
+        <v>1963</v>
+      </c>
+      <c r="R32" s="12">
+        <v>1706.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
@@ -1540,6 +1687,12 @@
       </c>
       <c r="P33" s="12">
         <v>540</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>547.9</v>
+      </c>
+      <c r="R33" s="12">
+        <v>700.5</v>
       </c>
     </row>
   </sheetData>
